--- a/input/ColumnsSelection.xlsx
+++ b/input/ColumnsSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I050385/github/Fraud_Detection_In_Sourcing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E23F4D9-4749-E249-B96A-524231C82EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576781DA-DEA8-3746-8FE3-9867B93887E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{472F574A-54A5-A44F-8715-FA9D29C22412}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{472F574A-54A5-A44F-8715-FA9D29C22412}"/>
   </bookViews>
   <sheets>
     <sheet name="AllColumns" sheetId="1" r:id="rId1"/>
@@ -1903,7 +1903,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,6 +1915,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1943,7 +1951,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4195B-477F-5E44-A21C-9EE04F801818}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E327" sqref="E327:E333"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2290,7 +2298,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -2324,7 +2332,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2426,10 +2434,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C11" t="s">
@@ -2443,10 +2451,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C12" t="s">
@@ -2460,7 +2468,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -2494,7 +2502,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -2514,7 +2522,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C16" t="s">
@@ -2531,7 +2539,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
@@ -2579,7 +2587,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -2596,10 +2604,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
@@ -2613,10 +2621,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -2630,10 +2638,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C23" t="s">
@@ -2650,7 +2658,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C24" t="s">
@@ -2667,7 +2675,7 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C25" t="s">
@@ -2684,7 +2692,7 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C26" t="s">
@@ -2701,7 +2709,7 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C27" t="s">
@@ -2732,7 +2740,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -2752,7 +2760,7 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C30" t="s">
@@ -2769,7 +2777,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C31" t="s">
@@ -2783,7 +2791,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -2800,7 +2808,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -2817,10 +2825,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C34" t="s">
@@ -2834,7 +2842,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
@@ -2851,10 +2859,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
@@ -2871,7 +2879,7 @@
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C37" t="s">
@@ -2888,7 +2896,7 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C38" t="s">
@@ -2905,7 +2913,7 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C39" t="s">
@@ -2922,7 +2930,7 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C40" t="s">
@@ -2936,10 +2944,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C41" t="s">
@@ -2953,10 +2961,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" t="s">
@@ -2970,10 +2978,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" t="s">
@@ -2987,10 +2995,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" t="s">
@@ -3004,10 +3012,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C45" t="s">
@@ -3217,7 +3225,7 @@
       <c r="C57" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E57" t="s">
@@ -3234,7 +3242,7 @@
       <c r="C58" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>216</v>
       </c>
       <c r="E58" t="s">
@@ -3251,7 +3259,7 @@
       <c r="C59" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E59" t="s">
@@ -3265,10 +3273,10 @@
       <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E60" t="s">
@@ -3279,7 +3287,7 @@
       <c r="B61" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D61" t="s">
@@ -3293,7 +3301,7 @@
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D62" t="s">
@@ -3307,7 +3315,7 @@
       <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D63" t="s">
@@ -3321,7 +3329,7 @@
       <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D64" t="s">
@@ -3335,7 +3343,7 @@
       <c r="B65" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D65" t="s">
@@ -3349,7 +3357,7 @@
       <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D66" t="s">
@@ -3363,7 +3371,7 @@
       <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D67" t="s">
@@ -3396,7 +3404,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D70" t="s">
@@ -3407,29 +3415,29 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D71" t="s">
         <v>229</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D72" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D73" t="s">
@@ -3440,7 +3448,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D74" t="s">
@@ -3451,7 +3459,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D75" t="s">
@@ -3462,7 +3470,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D76" t="s">
@@ -3604,12 +3612,12 @@
       <c r="D93" t="s">
         <v>251</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E94" t="s">
@@ -3617,7 +3625,7 @@
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E95" t="s">
@@ -3772,7 +3780,7 @@
       <c r="D114" t="s">
         <v>272</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="2" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3780,12 +3788,12 @@
       <c r="D115" t="s">
         <v>273</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>274</v>
       </c>
       <c r="E116" t="s">
@@ -3948,15 +3956,15 @@
       <c r="D136" t="s">
         <v>294</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4121,10 +4129,10 @@
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="2" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4289,15 +4297,15 @@
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E180" t="s">
@@ -4305,7 +4313,7 @@
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>339</v>
       </c>
       <c r="E181" t="s">
@@ -4313,7 +4321,7 @@
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>340</v>
       </c>
       <c r="E182" t="s">
@@ -4321,7 +4329,7 @@
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E183" t="s">
@@ -4409,12 +4417,12 @@
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4519,7 +4527,7 @@
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4624,7 +4632,7 @@
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E243" s="1" t="s">
+      <c r="E243" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4729,7 +4737,7 @@
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E264" s="1" t="s">
+      <c r="E264" s="2" t="s">
         <v>550</v>
       </c>
     </row>
@@ -4834,7 +4842,7 @@
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E285" s="1" t="s">
+      <c r="E285" s="2" t="s">
         <v>571</v>
       </c>
     </row>
@@ -4939,7 +4947,7 @@
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E306" s="1" t="s">
+      <c r="E306" s="2" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5044,37 +5052,37 @@
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E327" s="1" t="s">
+      <c r="E327" s="2" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E328" s="1" t="s">
+      <c r="E328" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E329" s="1" t="s">
+      <c r="E329" s="2" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E330" s="1" t="s">
+      <c r="E330" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E331" s="1" t="s">
+      <c r="E331" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E332" s="1" t="s">
+      <c r="E332" s="2" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E333" s="1" t="s">
+      <c r="E333" s="2" t="s">
         <v>618</v>
       </c>
     </row>
@@ -5087,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7C7CA-B3C3-DF43-807C-3800BE96E328}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
